--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKKPS144-001 until DPLKKPS144-002 - Kepesertaan - Proses - Verifikasi Split Balance.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKKPS144-001 until DPLKKPS144-002 - Kepesertaan - Proses - Verifikasi Split Balance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F6597A-CBAF-4726-8ABA-8CA3B48D2B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335CB525-64E1-43FE-9BA3-A17BA8929205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DPLKKPS144-001" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="43">
   <si>
     <t>RUN</t>
   </si>
@@ -110,9 +110,6 @@
     <t>KEP.TRX.445 Data dikembalikan</t>
   </si>
   <si>
-    <t>M11220800000028</t>
-  </si>
-  <si>
     <t>SNF_IURAN_PRIBADI</t>
   </si>
   <si>
@@ -141,14 +138,17 @@
   </si>
   <si>
     <t>DPLKKPS144-002</t>
+  </si>
+  <si>
+    <t>M11220800000011</t>
   </si>
   <si>
     <t>Username : 30711;
 Password : bni1234;
 Role : 09 - Penyelia Settlement;
-No. Register : M11220800000028;
-Saldo Nominal Final - Saldo Awal Iuran Pribadi : 308.000,00;
-Saldo Nominal Final - Saldo Awal Iuran Perusahaan : 1.292.000,00;
+No. Register : M11220800000011;
+Saldo Nominal Final - Saldo Awal Iuran Pribadi : 2.000.000,00;
+Saldo Nominal Final - Saldo Awal Iuran Perusahaan : 1.600.000,00;
 Saldo Nominal Final - Saldo Awal Iuran Sukarela : 0,00;
 Saldo Nominal Final - Saldo Awal Pengalihan Iuran Karyawan : 0,00;
 Saldo Nominal Final - Saldo Awal Pengalihan Iuran Perusahaan : 0,00;
@@ -156,10 +156,13 @@
 Keterangan Verifikasi : KEP.TRX.445 Disetujui</t>
   </si>
   <si>
+    <t>M11220800000027</t>
+  </si>
+  <si>
     <t>Username : 30711;
 Password : bni1234;
 Role : 09 - Penyelia Settlement;
-No. Register : M11220800000028;
+No. Register : M11220800000027;
 Saldo Nominal Final - Saldo Awal Iuran Pribadi : 308.000,00;
 Saldo Nominal Final - Saldo Awal Iuran Perusahaan : 1.292.000,00;
 Saldo Nominal Final - Saldo Awal Iuran Sukarela : 0,00;
@@ -561,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A75AAA4-F28F-45B6-8D73-FB1F2606A1FB}">
   <dimension ref="A1:V10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,19 +639,19 @@
         <v>18</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>19</v>
@@ -657,7 +660,7 @@
         <v>20</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="229.5" x14ac:dyDescent="0.25">
@@ -665,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>14</v>
@@ -677,7 +680,7 @@
         <v>22</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2" s="3">
         <v>30711</v>
@@ -701,7 +704,7 @@
         <v>24</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="O2" s="9">
         <v>308000</v>
@@ -725,7 +728,7 @@
         <v>28</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -763,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653A54F0-D01B-49C0-BB41-F0FC7D2164BA}">
   <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,19 +840,19 @@
         <v>18</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>19</v>
@@ -858,7 +861,7 @@
         <v>20</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="216.75" x14ac:dyDescent="0.25">
@@ -866,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>14</v>
@@ -902,13 +905,13 @@
         <v>24</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" s="9">
-        <v>308000</v>
+        <v>2000000</v>
       </c>
       <c r="P2" s="9">
-        <v>1292000</v>
+        <v>1600000</v>
       </c>
       <c r="Q2" s="9">
         <v>0</v>
@@ -926,7 +929,7 @@
         <v>27</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
